--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,6 +198,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -205,12 +235,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -220,6 +251,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,95 +310,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -350,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +559,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -568,11 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,32 +629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,22 +652,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +664,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,133 +676,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>

--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7730"/>
+    <workbookView windowWidth="19100" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,6 +198,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,7 +229,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,128 +317,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,25 +350,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,157 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +561,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,13 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,32 +628,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,9 +654,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,137 +682,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +826,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1145,7 +1157,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1258,10 +1270,10 @@
     <row r="11" ht="33" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
     </row>

--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="7320"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>自学排行</t>
   </si>
   <si>
-    <t>按照派出所统计——模拟考试和浏览试题的总次数（即参与自学的统计）</t>
+    <t>按照派出所统计——模拟考试和浏览试题的总次数</t>
   </si>
   <si>
     <t>正式考试排行</t>
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,7 +198,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,121 +306,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +356,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,31 +506,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,133 +530,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +565,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,11 +604,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,41 +662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -670,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,133 +682,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -822,16 +822,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1147,24 +1147,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="10.8727272727273" customWidth="1"/>
-    <col min="3" max="3" width="25.3727272727273" customWidth="1"/>
-    <col min="4" max="4" width="37.8727272727273" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1255,7 +1254,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" ht="33" spans="1:4">
+    <row r="10" ht="15" spans="1:4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1267,65 +1266,65 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="1:4">
+    <row r="11" ht="30" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:4">
+    <row r="12" ht="15" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:4">
+    <row r="13" ht="15" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="1:4">
+    <row r="14" ht="30" spans="1:4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" ht="33" spans="1:4">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" ht="30" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -812,8 +812,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -828,11 +831,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,8 +1158,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1167,310 +1170,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" ht="15" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="30" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="30" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" ht="30" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,9 +204,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,16 +303,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,105 +321,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,187 +356,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,17 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,21 +585,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,16 +625,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,145 +670,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1308,18 +1308,18 @@
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="3"/>

--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Gvision\police-office-testing\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CF11FBA7-F6BF-43E0-B1D3-37F3CF8C50FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19100" windowHeight="7320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>系统</t>
   </si>
@@ -42,6 +31,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>接口地址</t>
+  </si>
+  <si>
     <t>后台系统</t>
   </si>
   <si>
@@ -93,21 +85,36 @@
     <t>展示位置：前端；展示形式：表格</t>
   </si>
   <si>
+    <t>/staticData/staticDataLogin</t>
+  </si>
+  <si>
     <t>自学排行</t>
   </si>
   <si>
     <t>按照派出所统计——模拟考试和浏览试题的总次数</t>
   </si>
   <si>
+    <t>/staticData/staticDataSimulateExam</t>
+  </si>
+  <si>
     <t>正式考试排行</t>
   </si>
   <si>
     <t>按照派出所统计——参与考试的总次数排名</t>
   </si>
   <si>
+    <t>/staticData/staticDataOfficialExam</t>
+  </si>
+  <si>
     <t>按照派出所统计——每次考试的人数排名</t>
   </si>
   <si>
+    <t>展示位置：前端；展示形式：表格、柱状图</t>
+  </si>
+  <si>
+    <t>/staticData/staticDataByTestingCountAndScore</t>
+  </si>
+  <si>
     <t>按照派出所统计——每次考试的及格人数和优秀人数</t>
   </si>
   <si>
@@ -117,12 +124,24 @@
     <t>按照单次考试导出所有参与考试的人成绩单</t>
   </si>
   <si>
+    <t>展示位置：后台；展示形式：表格</t>
+  </si>
+  <si>
+    <t>/exportFile/exportFileByTestPaperId</t>
+  </si>
+  <si>
     <t>错题集</t>
   </si>
   <si>
     <t>根据正式考试中错误次数将错题集列出错题排行</t>
   </si>
   <si>
+    <t>展示位置：前端；展示形式：公告那种形式</t>
+  </si>
+  <si>
+    <t>/staticData/staticDataByQuestionFail</t>
+  </si>
+  <si>
     <t>答疑板管理</t>
   </si>
   <si>
@@ -187,29 +206,19 @@
   </si>
   <si>
     <t>答疑板列表</t>
-  </si>
-  <si>
-    <t>展示位置：前端；展示形式：表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示位置：后台；展示形式：表格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示位置：前端；展示形式：公告那种形式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示位置：前端；展示形式：表格、柱状图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -223,12 +232,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +396,200 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -302,104 +649,399 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00404040"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -413,9 +1055,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -464,7 +1103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -497,26 +1136,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -549,23 +1171,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,33 +1313,30 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.88671875" customWidth="1"/>
-    <col min="5" max="5" width="41.21875" customWidth="1"/>
-    <col min="6" max="1025" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.8909090909091" customWidth="1"/>
+    <col min="3" max="3" width="25.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="37.8909090909091" customWidth="1"/>
+    <col min="5" max="5" width="41.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,326 +1352,350 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="10" ht="33" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    </row>
+    <row r="11" ht="33" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="14" ht="33" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" customHeight="1" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" ht="33" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A2:A25"/>
     <mergeCell ref="A26:A30"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="A2:A25"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C12:C14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Doc/在线考试系统功能列表v1.0.xlsx
+++ b/Doc/在线考试系统功能列表v1.0.xlsx
@@ -213,9 +213,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -246,14 +246,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -268,11 +283,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,86 +353,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,31 +404,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,151 +584,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,6 +650,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -661,6 +670,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,15 +700,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -700,6 +711,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,26 +741,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -755,10 +755,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,133 +767,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1694,7 +1694,7 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C12:C14"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
